--- a/feedback_forms/testing_versions/landfill_operator_feedback_v070_test_01.xlsx
+++ b/feedback_forms/testing_versions/landfill_operator_feedback_v070_test_01.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB9A4FE-EBF9-4685-8A85-FDEEE53533AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5761A-2D12-4E5D-B2F0-3FD3651C910D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0kl1Iic2sxIsrYXUtAgBx1jg157dbNcZApz9c6vgUh3Wlnw/FtLvBPvZykeXonJO7KRSzxWPBzEykJW3Aj6SYw==" workbookSaltValue="kk043BccLj83ore7Xdi8gw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4673" yWindow="1413" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3347" yWindow="773" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="439">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2061,6 +2061,12 @@
   <si>
     <t>The sector is 'Landfill' and the schema is 'landfill_v01_00'
 This was the initial approved landfill feedback form that was sent out to operators, it included the _additional_leaks tab that ISD created, but it was hidden from operators.</t>
+  </si>
+  <si>
+    <t>I used a fisher scientific tva2020</t>
+  </si>
+  <si>
+    <t>an routine site inspection resulted in someone logging an odd smell</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2460,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2673,6 +2679,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3860,8 +3870,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4379,9 +4389,8 @@
         <v>378</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="52" t="str">
-        <f>LEFT(B41, 50)</f>
-        <v>Q7.  Instrument used to locate the leak (e.g., Fis</v>
+      <c r="D41" s="82" t="s">
+        <v>437</v>
       </c>
       <c r="G41" s="36"/>
     </row>
@@ -4400,9 +4409,8 @@
         <v>303</v>
       </c>
       <c r="C43" s="49"/>
-      <c r="D43" s="52" t="str">
-        <f>LEFT(B43, 50)</f>
-        <v>Q9.  If no leaks were found, please describe any e</v>
+      <c r="D43" s="82" t="s">
+        <v>438</v>
       </c>
       <c r="G43" s="36"/>
     </row>
@@ -10310,15 +10318,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10553,6 +10552,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10565,14 +10573,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10587,6 +10587,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
